--- a/Errores_Salida.xlsx
+++ b/Errores_Salida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 500.000 s)</t>
+          <t>C(t = 281.250 s)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 1000.000 s)</t>
+          <t>C(t = 562.500 s)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 1500.000 s)</t>
+          <t>C(t = 843.750 s)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 2000.000 s)</t>
+          <t>C(t = 1125.000 s)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 2500.000 s)</t>
+          <t>C(t = 1406.250 s)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 3000.000 s)</t>
+          <t>C(t = 1687.500 s)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 1968.750 s)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2250.000 s)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2531.250 s)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2812.500 s)</t>
         </is>
       </c>
     </row>
@@ -478,22 +498,34 @@
         <v>-10</v>
       </c>
       <c r="C2" t="n">
-        <v>7.835433265508668e-12</v>
+        <v>3.753071400793627e-20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.486719514734298e-06</v>
+        <v>1.188120024980291e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>7.82967533089095e-05</v>
+        <v>1.598861512585516e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005445710575881775</v>
+        <v>5.621336212184457e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001700073320504068</v>
+        <v>4.639630592536599e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003570993808478551</v>
+        <v>0.0001863339595975385</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0004970378915617418</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001028185997527404</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.001797125627452317</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.002793612098841302</v>
       </c>
     </row>
     <row r="3">
@@ -504,22 +536,34 @@
         <v>-9.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469564466361096e-06</v>
+        <v>1.101221132243365e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>4.118511739892079e-05</v>
+        <v>7.920820373174276e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001208993674257903</v>
+        <v>9.463970216227287e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>8.71769307728336e-05</v>
+        <v>3.816693517631554e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008876454300352048</v>
+        <v>6.802532589200738e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002314910546909278</v>
+        <v>3.717657217371654e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001239282299956118</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004631753994759314</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001000283211308643</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001732335223079848</v>
       </c>
     </row>
     <row r="4">
@@ -530,22 +574,34 @@
         <v>-9</v>
       </c>
       <c r="C4" t="n">
-        <v>4.145152542489096e-06</v>
+        <v>3.951037230601577e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>9.977417656971514e-05</v>
+        <v>2.439762740070082e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003088984623886992</v>
+        <v>2.540650880731784e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002365467198306725</v>
+        <v>9.36748664739952e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003664426787077521</v>
+        <v>0.0001794264065997881</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001489094080333131</v>
+        <v>0.0002120245527693818</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0001296168077103423</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0001018660878720186</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0004935660574323392</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.001042299967953875</v>
       </c>
     </row>
     <row r="5">
@@ -556,22 +612,34 @@
         <v>-8.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.016309513170532e-05</v>
+        <v>1.298114064254567e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001942969890037793</v>
+        <v>6.631211198427534e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005063071132889887</v>
+        <v>5.703581045206336e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004548560343730647</v>
+        <v>0.0001775391444996219</v>
       </c>
       <c r="G5" t="n">
-        <v>7.836732077292057e-05</v>
+        <v>0.0003061999528145962</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001004322259595075</v>
+        <v>0.0003604279226141764</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0002972203030386159</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0001070319508553142</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.000206034832371688</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0006347626454347461</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +650,34 @@
         <v>-8</v>
       </c>
       <c r="C6" t="n">
-        <v>2.416294040778899e-05</v>
+        <v>4.193328397382872e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003479664415528148</v>
+        <v>1.737728087875183e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0007108682407181474</v>
+        <v>0.0001193653115212682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005649971976677852</v>
+        <v>0.0003044217191492937</v>
       </c>
       <c r="G6" t="n">
-        <v>7.598623940036076e-06</v>
+        <v>0.0004518451916866359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007928261801529186</v>
+        <v>0.0004808466554853349</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0003850147078828898</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0001867230575692711</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.38209325386137e-05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000446136186590106</v>
       </c>
     </row>
     <row r="7">
@@ -608,22 +688,34 @@
         <v>-7.5</v>
       </c>
       <c r="C7" t="n">
-        <v>5.645875897405721e-05</v>
+        <v>1.338546075340346e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005832481438766809</v>
+        <v>4.406694185993563e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0008920401363545064</v>
+        <v>0.0002347349713520873</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005405509254342439</v>
+        <v>0.0004817551103299986</v>
       </c>
       <c r="G7" t="n">
-        <v>9.325490484961632e-05</v>
+        <v>0.00060043482401374</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007995984253969662</v>
+        <v>0.0005496530335530143</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0003789323052363416</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0001423522982463652</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0001299476760466788</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0004292300370615024</v>
       </c>
     </row>
     <row r="8">
@@ -634,22 +726,34 @@
         <v>-7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001292719768021583</v>
+        <v>4.218829810968264e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0009084870609983194</v>
+        <v>0.0001071604663379725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0009853795949054311</v>
+        <v>0.000429860758729162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003419956407519371</v>
+        <v>0.000697803769896302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003688329812716884</v>
+        <v>0.0007103084038574646</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000973683935674971</v>
+        <v>0.000524138955085126</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0002536070236880544</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.812778244021263e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0002939761270735648</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0005445801739984574</v>
       </c>
     </row>
     <row r="9">
@@ -660,22 +764,34 @@
         <v>-6.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002873919746254924</v>
+        <v>1.310638583899033e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00129144398905244</v>
+        <v>0.0002464188656486376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008928708654975127</v>
+        <v>0.0007219675489653357</v>
       </c>
       <c r="F9" t="n">
-        <v>6.769118724283402e-05</v>
+        <v>0.0009040015177874546</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0007973982546718821</v>
+        <v>0.0007108626834484641</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001260747204142265</v>
+        <v>0.00035051197051017</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.566247562355058e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003222992862258779</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00056225165537915</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0007528892435653342</v>
       </c>
     </row>
     <row r="10">
@@ -686,22 +802,34 @@
         <v>-6</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006110322384088715</v>
+        <v>4.001605406495486e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001621303024611806</v>
+        <v>0.0005260852869979542</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004971084450832476</v>
+        <v>0.001086849195207981</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007023426053185053</v>
+        <v>0.0009979114672228357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001336215951452287</v>
+        <v>0.0005094307915997649</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00159828793116009</v>
+        <v>2.023506357630434e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0004378318641162678</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0007218700993995089</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00089997917258159</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.001009670538650247</v>
       </c>
     </row>
     <row r="11">
@@ -712,22 +840,34 @@
         <v>-5.5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001214974230247917</v>
+        <v>0.000119339529843844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001673715540935931</v>
+        <v>0.001017887949897312</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00030377106154586</v>
+        <v>0.001408592797020337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001529721440459993</v>
+        <v>0.0008210682236888256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00191432843874504</v>
+        <v>1.530517217648505e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001914752913462714</v>
+        <v>0.0006083567623535527</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0009900660491125313</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001183710608132847</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.001256728473566573</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.001263135055674186</v>
       </c>
     </row>
     <row r="12">
@@ -738,22 +878,34 @@
         <v>-5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002187552908244932</v>
+        <v>0.0003429298644636847</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001112924462523111</v>
+        <v>0.001723997736731736</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001539699440779099</v>
+        <v>0.00143174980021436</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002452849941933226</v>
+        <v>0.0001919653423312247</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002432451703338986</v>
+        <v>0.0008165596242948464</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002133336164894903</v>
+        <v>0.001377732048835401</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.001605338733413696</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001636355979352633</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.001566974154494666</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.001456043544450017</v>
       </c>
     </row>
     <row r="13">
@@ -764,22 +916,34 @@
         <v>-4.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00338911991483343</v>
+        <v>0.0009236912773421902</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0004200309359237014</v>
+        <v>0.002404414167940377</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003102476682567558</v>
+        <v>0.0007702218334025672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003304620401403294</v>
+        <v>0.001010089619831567</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002772349427108384</v>
+        <v>0.00193014140456705</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002180423194616296</v>
+        <v>0.002214547322560614</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.002169905952621121</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001984901607960776</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.001756667041607415</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.001531597715035249</v>
       </c>
     </row>
     <row r="14">
@@ -790,22 +954,34 @@
         <v>-4</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004066868738265778</v>
+        <v>0.002221336256300036</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00309657626001409</v>
+        <v>0.00235617000461393</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004697243231108941</v>
+        <v>0.000950169056222791</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003864684630991141</v>
+        <v>0.002718617230922003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002816159525904971</v>
+        <v>0.003123600203621291</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001997504626515961</v>
+        <v>0.002925944373969744</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.002536349336671698</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.002125773605737472</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.001755550583371873</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.001442519874305853</v>
       </c>
     </row>
     <row r="15">
@@ -816,22 +992,34 @@
         <v>-3.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002493191969203491</v>
+        <v>0.004391711130446753</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006596506134791541</v>
+        <v>0.0003987269057331641</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005850486216467707</v>
+        <v>0.003775167886491682</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003903123997231334</v>
+        <v>0.004562883640934587</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002473190893082261</v>
+        <v>0.004048429718173457</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00155420029886999</v>
+        <v>0.003270644929763242</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.002554262445072009</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001970055812417493</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.001513185927238897</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.001161464837061393</v>
       </c>
     </row>
     <row r="16">
@@ -842,22 +1030,34 @@
         <v>-3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003661998084303918</v>
+        <v>0.005980821143380183</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009859640058984404</v>
+        <v>0.004474024238364724</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006008513989419789</v>
+        <v>0.007031326184861436</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003246207441117949</v>
+        <v>0.005853955938171146</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001708406128653611</v>
+        <v>0.004282058733389299</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008591593650007223</v>
+        <v>0.003024114577562714</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.002114186246332861</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001470549103293972</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.001014934517887645</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0006901315490648596</v>
       </c>
     </row>
     <row r="17">
@@ -868,22 +1068,34 @@
         <v>-2.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01522056348022029</v>
+        <v>0.001754867913258712</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01115757998625852</v>
+        <v>0.01154040781619266</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004729430064932427</v>
+        <v>0.009168846592576552</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001847873844832565</v>
+        <v>0.005766567423441754</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005643703826789526</v>
+        <v>0.003476771764396647</v>
       </c>
       <c r="H17" t="n">
-        <v>3.458280991239238e-05</v>
+        <v>0.002064682188102074</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001193031200251243</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0006447954804296718</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0002931451429823984</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.422793869326204e-05</v>
       </c>
     </row>
     <row r="18">
@@ -894,22 +1106,34 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02770965795371436</v>
+        <v>0.01550661805581285</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008730096744565125</v>
+        <v>0.01678566150600236</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001917309452380112</v>
+        <v>0.008240242037286266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001586906150642942</v>
+        <v>0.003725272427786974</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0008318028976334046</v>
+        <v>0.001542069093132786</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001032445190334574</v>
+        <v>0.0004503681570199036</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0001156832111675332</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0004145806857344947</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0005708833244246203</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.000647979624328221</v>
       </c>
     </row>
     <row r="19">
@@ -920,22 +1144,34 @@
         <v>-1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02921888711787246</v>
+        <v>0.04106630474985234</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001938532955208072</v>
+        <v>0.01376212362158996</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002007333108638931</v>
+        <v>0.003130253274599593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002455847795619664</v>
+        <v>0.0001543497645914438</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002282205167762091</v>
+        <v>0.001225061623842894</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002010284051323141</v>
+        <v>0.001551171526964379</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.001602437489062747</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001548619316667804</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.001456688437262571</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.001354428115129702</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +1182,34 @@
         <v>-1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006641446084178881</v>
+        <v>0.03992785344629379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00765409277481538</v>
+        <v>0.001041249020164392</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006121143021742104</v>
+        <v>0.005076908146361803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004597588645385564</v>
+        <v>0.004854768971794099</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003552713914333344</v>
+        <v>0.004153443518194633</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002834151688596964</v>
+        <v>0.003506792963479832</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.002980398138698548</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.002560968320534207</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.00222554525819435</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.001954341463188458</v>
       </c>
     </row>
     <row r="21">
@@ -972,22 +1220,34 @@
         <v>-0.5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03622081480407668</v>
+        <v>0.02805165620572103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01629265789300166</v>
+        <v>0.02114956735121676</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00925534410998835</v>
+        <v>0.01286719648188317</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006119469264266375</v>
+        <v>0.008728124661375181</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004421702735408428</v>
+        <v>0.006392862224944784</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003384178625490536</v>
+        <v>0.004934840295908349</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.003955543502027425</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.003261287031566751</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002748337250029764</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.002356770596853797</v>
       </c>
     </row>
     <row r="22">
@@ -998,22 +1258,34 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06350844415227674</v>
+        <v>0.1053102734103188</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01979550701493776</v>
+        <v>0.03103709526537413</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01042802267199444</v>
+        <v>0.01608989328364507</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006670352484588971</v>
+        <v>0.01023005324576548</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004730558482924418</v>
+        <v>0.00723177063670466</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003577402187070033</v>
+        <v>0.005458373664090355</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.004307780399269545</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.003511531810827195</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002933612224773896</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.002498463951677521</v>
       </c>
     </row>
     <row r="23">
@@ -1024,22 +1296,34 @@
         <v>0.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03622081480407657</v>
+        <v>0.02805165620572125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01629265789300161</v>
+        <v>0.02114956735121676</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009255344109988239</v>
+        <v>0.01286719648188317</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00611946926426632</v>
+        <v>0.008728124661375181</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004421702735408428</v>
+        <v>0.006392862224944784</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003384178625490536</v>
+        <v>0.004934840295908349</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.00395554350202737</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.003261287031566695</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002748337250029709</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.002356770596853797</v>
       </c>
     </row>
     <row r="24">
@@ -1050,22 +1334,34 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006641446084178881</v>
+        <v>0.03992785344629368</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007654092774815324</v>
+        <v>0.001041249020164392</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006121143021741993</v>
+        <v>0.005076908146361747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004597588645385453</v>
+        <v>0.004854768971794043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003552713914333261</v>
+        <v>0.004153443518194577</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002834151688596936</v>
+        <v>0.003506792963479777</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.002980398138698548</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.002560968320534152</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.002225545258194322</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.001954341463188458</v>
       </c>
     </row>
     <row r="25">
@@ -1076,22 +1372,34 @@
         <v>1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02921888711787252</v>
+        <v>0.04106630474985232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001938532955208072</v>
+        <v>0.01376212362159002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002007333108638876</v>
+        <v>0.003130253274599815</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002455847795619553</v>
+        <v>0.0001543497645912772</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002282205167762008</v>
+        <v>0.001225061623842782</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002010284051323086</v>
+        <v>0.001551171526964379</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.001602437489062747</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.001548619316667776</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001456688437262516</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.001354428115129619</v>
       </c>
     </row>
     <row r="26">
@@ -1102,22 +1410,34 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02770965795371441</v>
+        <v>0.01550661805581287</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00873009674456518</v>
+        <v>0.01678566150600244</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001917309452380167</v>
+        <v>0.008240242037286433</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001586906150641554</v>
+        <v>0.003725272427787085</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0008318028976332381</v>
+        <v>0.001542069093132953</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001032445190334463</v>
+        <v>0.0004503681570199869</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0001156832111675332</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0004145806857344669</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0005708833244245093</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.00064797962432811</v>
       </c>
     </row>
     <row r="27">
@@ -1128,22 +1448,34 @@
         <v>2.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01522056348022034</v>
+        <v>0.001754867913258705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01115757998625863</v>
+        <v>0.01154040781619273</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004729430064932538</v>
+        <v>0.00916884659257669</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001847873844832731</v>
+        <v>0.005766567423441893</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0005643703826791746</v>
+        <v>0.003476771764396841</v>
       </c>
       <c r="H27" t="n">
-        <v>3.458280991222584e-05</v>
+        <v>0.002064682188102185</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.001193031200251299</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0006447954804297551</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0002931451429825649</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.422793869342858e-05</v>
       </c>
     </row>
     <row r="28">
@@ -1154,22 +1486,34 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003661998084303952</v>
+        <v>0.005980821143380177</v>
       </c>
       <c r="D28" t="n">
-        <v>0.009859640058984487</v>
+        <v>0.004474024238364752</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006008513989419928</v>
+        <v>0.007031326184861506</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003246207441118115</v>
+        <v>0.005853955938171229</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001708406128653833</v>
+        <v>0.004282058733389466</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0008591593650009444</v>
+        <v>0.003024114577562798</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.002114186246332972</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.001470549103294111</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.001014934517887783</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0006901315490650539</v>
       </c>
     </row>
     <row r="29">
@@ -1180,22 +1524,34 @@
         <v>3.5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002493191969203477</v>
+        <v>0.004391711130446749</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006596506134791583</v>
+        <v>0.0003987269057331502</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00585048621646779</v>
+        <v>0.003775167886491723</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003903123997231472</v>
+        <v>0.004562883640934684</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002473190893082455</v>
+        <v>0.004048429718173568</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001554200298870184</v>
+        <v>0.003270644929763353</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.002554262445072175</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001970055812417604</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001513185927239036</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.001161464837061588</v>
       </c>
     </row>
     <row r="30">
@@ -1206,22 +1562,34 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004066868738265773</v>
+        <v>0.002221336256300035</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003096576260014118</v>
+        <v>0.002356170004613923</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004697243231109025</v>
+        <v>0.0009501690562228188</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003864684630991266</v>
+        <v>0.002718617230922066</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002816159525905165</v>
+        <v>0.003123600203621374</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001997504626516156</v>
+        <v>0.002925944373969841</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.00253634933667185</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.002125773605737624</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.00175555058337204</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.001442519874306061</v>
       </c>
     </row>
     <row r="31">
@@ -1232,22 +1600,34 @@
         <v>4.5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003389119914833429</v>
+        <v>0.0009236912773421893</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004200309359237223</v>
+        <v>0.00240441416794037</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00310247668256762</v>
+        <v>0.0007702218334025568</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003304620401403391</v>
+        <v>0.001010089619831608</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00277234942710855</v>
+        <v>0.001930141404567126</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002180423194616504</v>
+        <v>0.002214547322560712</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.002169905952621259</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001984901607960929</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001756667041607596</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.001531597715035429</v>
       </c>
     </row>
     <row r="32">
@@ -1258,22 +1638,34 @@
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002187552908244932</v>
+        <v>0.0003429298644636843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001112924462523091</v>
+        <v>0.001723997736731732</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001539699440779148</v>
+        <v>0.001431749800214351</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002452849941933295</v>
+        <v>0.00019196534233119</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002432451703339111</v>
+        <v>0.0008165596242949089</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002133336164895097</v>
+        <v>0.001377732048835477</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.001605338733413807</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001636355979352785</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.001566974154494832</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.001456043544450197</v>
       </c>
     </row>
     <row r="33">
@@ -1284,22 +1676,34 @@
         <v>5.5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001214974230247916</v>
+        <v>0.0001193395298438438</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001673715540935919</v>
+        <v>0.001017887949897309</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0003037710615458947</v>
+        <v>0.001408592797020332</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001529721440460048</v>
+        <v>0.0008210682236888048</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001914328438745137</v>
+        <v>1.530517217644689e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001914752913462853</v>
+        <v>0.0006083567623536151</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0009900660491126215</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001183710608132979</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001256728473566719</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.001263135055674373</v>
       </c>
     </row>
     <row r="34">
@@ -1310,22 +1714,34 @@
         <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0006110322384088714</v>
+        <v>4.001605406495481e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001621303024611799</v>
+        <v>0.0005260852869979531</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0004971084450832268</v>
+        <v>0.001086849195207977</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0007023426053185539</v>
+        <v>0.0009979114672228253</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001336215951452363</v>
+        <v>0.0005094307915997406</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001598287931160208</v>
+        <v>2.023506357635291e-05</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0004378318641163371</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.000721870099399613</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0008999791725817149</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.001009670538650399</v>
       </c>
     </row>
     <row r="35">
@@ -1336,22 +1752,34 @@
         <v>6.5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002873919746254923</v>
+        <v>1.31063858389903e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001291443989052436</v>
+        <v>0.0002464188656486372</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008928708654974988</v>
+        <v>0.0007219675489653333</v>
       </c>
       <c r="F35" t="n">
-        <v>6.769118724286871e-05</v>
+        <v>0.0009040015177874477</v>
       </c>
       <c r="G35" t="n">
-        <v>0.000797398254671948</v>
+        <v>0.0007108626834484485</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001260747204142369</v>
+        <v>0.0003505119705101371</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.566247562359915e-05</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0003222992862259438</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0005622516553792402</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0007528892435654522</v>
       </c>
     </row>
     <row r="36">
@@ -1362,22 +1790,34 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001292719768021582</v>
+        <v>4.218829810968257e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0009084870609983174</v>
+        <v>0.0001071604663379723</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0009853795949054216</v>
+        <v>0.0004298607587291607</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0003419956407519111</v>
+        <v>0.0006978037698962972</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0003688329812717404</v>
+        <v>0.0007103084038574542</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0009736839356750474</v>
+        <v>0.0005241389550851034</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0002536070236880197</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.812778244026121e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0002939761270736342</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0005445801739985476</v>
       </c>
     </row>
     <row r="37">
@@ -1388,22 +1828,34 @@
         <v>7.5</v>
       </c>
       <c r="C37" t="n">
-        <v>5.645875897405719e-05</v>
+        <v>1.338546075340343e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005832481438766801</v>
+        <v>4.406694185993554e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0008920401363545012</v>
+        <v>0.0002347349713520866</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00054055092543423</v>
+        <v>0.0004817551103299957</v>
       </c>
       <c r="G37" t="n">
-        <v>9.325490484964928e-05</v>
+        <v>0.0006004348240137339</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0007995984253970218</v>
+        <v>0.0005496530335530022</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0003789323052363208</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.000142352298246334</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0001299476760467273</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0004292300370615613</v>
       </c>
     </row>
     <row r="38">
@@ -1414,22 +1866,34 @@
         <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>2.416294040778898e-05</v>
+        <v>4.193328397382863e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0003479664415528145</v>
+        <v>1.73772808787518e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0007108682407181443</v>
+        <v>0.0001193653115212679</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0005649971976677756</v>
+        <v>0.0003044217191492923</v>
       </c>
       <c r="G38" t="n">
-        <v>7.598623940013524e-06</v>
+        <v>0.000451845191686632</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0007928261801529567</v>
+        <v>0.0004808466554853271</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0003850147078828759</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0001867230575692512</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9.38209325386484e-05</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0004461361865901511</v>
       </c>
     </row>
     <row r="39">
@@ -1440,22 +1904,34 @@
         <v>8.5</v>
       </c>
       <c r="C39" t="n">
-        <v>1.016309513170531e-05</v>
+        <v>1.298114064254565e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001942969890037792</v>
+        <v>6.631211198427519e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005063071132889871</v>
+        <v>5.703581045206322e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00045485603437306</v>
+        <v>0.0001775391444996212</v>
       </c>
       <c r="G39" t="n">
-        <v>7.836732077293445e-05</v>
+        <v>0.000306199952814594</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001004322259595099</v>
+        <v>0.0003604279226141717</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0002972203030386072</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0001070319508553004</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0002060348323717131</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0006347626454347791</v>
       </c>
     </row>
     <row r="40">
@@ -1466,22 +1942,34 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>4.145152542489094e-06</v>
+        <v>3.951037230601568e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>9.977417656971506e-05</v>
+        <v>2.439762740070076e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003088984623886983</v>
+        <v>2.540650880731778e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0002365467198306695</v>
+        <v>9.367486647399482e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0003664426787077599</v>
+        <v>0.000179426406599787</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001489094080333145</v>
+        <v>0.000212024552769379</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0001296168077103367</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0001018660878720277</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0004935660574323548</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.001042299967953895</v>
       </c>
     </row>
     <row r="41">
@@ -1492,22 +1980,34 @@
         <v>9.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.469564466361096e-06</v>
+        <v>1.101221132243362e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>4.118511739892076e-05</v>
+        <v>7.920820373174252e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00012089936742579</v>
+        <v>9.463970216227261e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>8.717693077283479e-05</v>
+        <v>3.816693517631539e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0008876454300352082</v>
+        <v>6.802532589200686e-05</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002314910546909286</v>
+        <v>3.717657217371529e-05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0001239282299956145</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.000463175399475936</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001000283211308651</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.001732335223079858</v>
       </c>
     </row>
     <row r="42">
@@ -1518,22 +2018,34 @@
         <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>7.835433265508668e-12</v>
+        <v>3.753071400793627e-20</v>
       </c>
       <c r="D42" t="n">
-        <v>1.486719514734298e-06</v>
+        <v>1.188120024980291e-10</v>
       </c>
       <c r="E42" t="n">
-        <v>7.82967533089095e-05</v>
+        <v>1.598861512585516e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0005445710575881775</v>
+        <v>5.621336212184457e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001700073320504068</v>
+        <v>4.639630592536599e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>0.003570993808478551</v>
+        <v>0.0001863339595975385</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0004970378915617418</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.001028185997527404</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.001797125627452317</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.002793612098841302</v>
       </c>
     </row>
   </sheetData>

--- a/Errores_Salida.xlsx
+++ b/Errores_Salida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>C(t = 281.250 s)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>C(t = 562.500 s)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 843.750 s)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>C(t = 1125.000 s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 1406.250 s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>C(t = 1687.500 s)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 1968.750 s)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>C(t = 2250.000 s)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2531.250 s)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C(t = 2812.500 s)</t>
         </is>
@@ -470,18 +495,33 @@
         <v>-10</v>
       </c>
       <c r="B2" t="n">
+        <v>3.753071400793627e-20</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.188120024980291e-10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>1.598861512585516e-07</v>
+      </c>
+      <c r="E2" t="n">
         <v>5.621336212184457e-06</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>4.639630592536599e-05</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0001863339595975385</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
+        <v>0.0004970378915617418</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.001028185997527404</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>0.001797125627452317</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.002793612098841302</v>
       </c>
     </row>
@@ -490,18 +530,33 @@
         <v>-9.5</v>
       </c>
       <c r="B3" t="n">
+        <v>2.232367313174404e-09</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.773133549744142e-07</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
+        <v>2.773000136238616e-06</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.097168013849574e-05</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>8.263766332606556e-06</v>
+      </c>
+      <c r="G3" t="n">
         <v>5.077211733908613e-05</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
+        <v>0.0002221642308108774</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.0005516534459372535</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
+        <v>0.001064505400947203</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.001765276922314452</v>
       </c>
     </row>
@@ -510,18 +565,33 @@
         <v>-9</v>
       </c>
       <c r="B4" t="n">
+        <v>8.4169027042316e-09</v>
+      </c>
+      <c r="C4" t="n">
         <v>5.934462376864636e-07</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>7.817561789008916e-06</v>
+      </c>
+      <c r="E4" t="n">
         <v>2.960344989279686e-05</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>5.00284204102566e-05</v>
+      </c>
+      <c r="G4" t="n">
         <v>3.308245045100108e-05</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
+        <v>6.083298821672419e-05</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.0002659257399005841</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>0.0006059299309506376</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.001092105132153093</v>
       </c>
     </row>
@@ -530,18 +600,33 @@
         <v>-8.5</v>
       </c>
       <c r="B5" t="n">
+        <v>2.937990756015918e-08</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.777804734030053e-06</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>1.828539262412164e-05</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.641006848172933e-05</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>8.990550300629551e-05</v>
+      </c>
+      <c r="G5" t="n">
         <v>8.861880145154353e-05</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
+        <v>3.00756778229801e-05</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.0001051904049199099</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
+        <v>0.0003344817735985006</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.0006705008413481674</v>
       </c>
     </row>
@@ -550,18 +635,33 @@
         <v>-8</v>
       </c>
       <c r="B6" t="n">
+        <v>1.013998662918833e-07</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.119394901460902e-06</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>3.929943889868244e-05</v>
+      </c>
+      <c r="E6" t="n">
         <v>9.525409520934303e-05</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>0.0001301616856961907</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0001237848129516782</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
+        <v>7.223393439318229e-05</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.943044296900132e-05</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
+        <v>0.0001911792219682143</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.00042479238417969</v>
       </c>
     </row>
@@ -570,18 +670,33 @@
         <v>-7.5</v>
       </c>
       <c r="B7" t="n">
+        <v>3.475952595426759e-07</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.409710143671209e-05</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
+        <v>7.779576273621819e-05</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0001459920777264674</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
+        <v>0.0001652160266607107</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0001360901667524159</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
+        <v>7.378792259352639e-05</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.552405798609102e-05</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
+        <v>0.0001366872555234114</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.0003004897545688077</v>
       </c>
     </row>
@@ -590,18 +705,33 @@
         <v>-7</v>
       </c>
       <c r="B8" t="n">
+        <v>1.18298387884229e-06</v>
+      </c>
+      <c r="C8" t="n">
         <v>3.652239392209351e-05</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
+        <v>0.0001400900728288722</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.0002008328999728872</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>0.0001817892306120814</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0001166491918776959</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
+        <v>3.585100941221574e-05</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.979471577010869e-05</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
+        <v>0.0001440710137959739</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.0002579908128893769</v>
       </c>
     </row>
@@ -610,18 +740,33 @@
         <v>-6.5</v>
       </c>
       <c r="B9" t="n">
+        <v>3.991063862905882e-06</v>
+      </c>
+      <c r="C9" t="n">
         <v>8.714960263904854e-05</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
+        <v>0.0002251377620184696</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.0002403326880498899</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
+        <v>0.000160337208569063</v>
+      </c>
+      <c r="G9" t="n">
         <v>5.462335286175388e-05</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
+        <v>4.180534215363074e-05</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0001219657370485384</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
+        <v>0.0001929399999774893</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.000267304927021525</v>
       </c>
     </row>
@@ -630,18 +775,33 @@
         <v>-6</v>
       </c>
       <c r="B10" t="n">
+        <v>1.329411097042607e-05</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.0001864467594923193</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
+        <v>0.0003132250559916643</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.0002321253353378509</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
+        <v>7.956058844167321e-05</v>
+      </c>
+      <c r="G10" t="n">
         <v>5.729644390818286e-05</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
+        <v>0.0001557171971623243</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0002206013493667655</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
+        <v>0.0002652191791607111</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.000304144730480703</v>
       </c>
     </row>
@@ -650,18 +810,33 @@
         <v>-5.5</v>
       </c>
       <c r="B11" t="n">
+        <v>4.325160389720846e-05</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.0003448180131093968</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
+        <v>0.0003548431233305512</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0001365304809409548</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>7.525136069303634e-05</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.0002167767414537336</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
+        <v>0.0002947904732341078</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.0003302969288856636</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
+        <v>0.0003427141687136065</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.0003475501900163866</v>
       </c>
     </row>
@@ -670,18 +845,33 @@
         <v>-5</v>
       </c>
       <c r="B12" t="n">
+        <v>0.0001340346501188414</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.0005221397328135898</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
+        <v>0.0002715237934633793</v>
+      </c>
+      <c r="E12" t="n">
         <v>7.803615112052589e-05</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>0.0003013123449663174</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.0004066512510286779</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
+        <v>0.0004383558806028143</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.0004309610018769089</v>
       </c>
-      <c r="F12" t="n">
+      <c r="J12" t="n">
+        <v>0.0004065329423724451</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.0003790263703340457</v>
       </c>
     </row>
@@ -690,18 +880,33 @@
         <v>-4.5</v>
       </c>
       <c r="B13" t="n">
+        <v>0.0003767715369098864</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.0005777565660782949</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
+        <v>1.69698056495908e-05</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.0004116672879874647</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
+        <v>0.0005686819071119009</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.0005929945261255593</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
+        <v>0.0005571941376371348</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.0004993952059435536</v>
       </c>
-      <c r="F13" t="n">
+      <c r="J13" t="n">
+        <v>0.0004382369491039845</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.0003829830236554282</v>
       </c>
     </row>
@@ -710,18 +915,33 @@
         <v>-4</v>
       </c>
       <c r="B14" t="n">
+        <v>0.0008801175682873182</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.0002784238640146618</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
+        <v>0.0005354680765710385</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.0008107344516511406</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
+        <v>0.0008174729882632348</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.0007286921140924052</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
+        <v>0.0006180547969308059</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.000512993067000464</v>
       </c>
-      <c r="F14" t="n">
+      <c r="J14" t="n">
+        <v>0.0004223224936961978</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.0003480706086109731</v>
       </c>
     </row>
@@ -730,18 +950,33 @@
         <v>-3.5</v>
       </c>
       <c r="B15" t="n">
+        <v>0.001411685417850079</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.0005562103095033341</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
+        <v>0.001188709350211786</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.001161798226993319</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
+        <v>0.0009669869005348719</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.0007633958125275037</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
+        <v>0.000591225108020732</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.0004548219914505269</v>
       </c>
-      <c r="F15" t="n">
+      <c r="J15" t="n">
+        <v>0.0003493371842846482</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.0002688482248320023</v>
       </c>
     </row>
@@ -750,18 +985,33 @@
         <v>-3</v>
       </c>
       <c r="B16" t="n">
+        <v>0.0004218354445552144</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.001795184549126569</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
+        <v>0.001738109836316115</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.001315140959735034</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>0.0009380040664224987</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.0006583483194415318</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
+        <v>0.0004594949230675716</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.0003188070312395708</v>
       </c>
-      <c r="F16" t="n">
+      <c r="J16" t="n">
+        <v>0.0002187156658476075</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.0001471424625741624</v>
       </c>
     </row>
@@ -770,18 +1020,33 @@
         <v>-2.5</v>
       </c>
       <c r="B17" t="n">
+        <v>0.002532466581562004</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.002845107283435178</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
+        <v>0.001867606383185616</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.001139266432846314</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>0.0006831207719750765</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0004019213649765763</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
+        <v>0.0002258815902129452</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.0001134330978926346</v>
       </c>
-      <c r="F17" t="n">
+      <c r="J17" t="n">
+        <v>4.03795650722738e-05</v>
+      </c>
+      <c r="K17" t="n">
         <v>7.494842012151226e-06</v>
       </c>
     </row>
@@ -790,18 +1055,33 @@
         <v>-2</v>
       </c>
       <c r="B18" t="n">
+        <v>0.005835966714192314</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.002869335464371153</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
+        <v>0.001339154478326693</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.0005884941647758268</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>0.000213956682122457</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.009426153246063e-05</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
+        <v>8.276436428789058e-05</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.0001374794687055148</v>
       </c>
-      <c r="F18" t="n">
+      <c r="J18" t="n">
+        <v>0.0001656431391173219</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.0001786306353355194</v>
       </c>
     </row>
@@ -810,18 +1090,33 @@
         <v>-1.5</v>
       </c>
       <c r="B19" t="n">
+        <v>0.004688111488193647</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.001377170573489184</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
+        <v>0.0001651918382022943</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.000249560682427985</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
+        <v>0.0003880287533528093</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.0004233661389557164</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
+        <v>0.0004183438198860079</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.0003977283040174362</v>
       </c>
-      <c r="F19" t="n">
+      <c r="J19" t="n">
+        <v>0.0003718708495882295</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.0003451870085183772</v>
       </c>
     </row>
@@ -830,18 +1125,33 @@
         <v>-1</v>
       </c>
       <c r="B20" t="n">
+        <v>4.608406820882927e-05</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.001242049296894587</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
+        <v>0.001318338074320968</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.001158780741044585</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>0.0009859959953863462</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.000839254397431044</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
+        <v>0.0007205832872461126</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.0006251910792478554</v>
       </c>
-      <c r="F20" t="n">
+      <c r="J20" t="n">
+        <v>0.0005479839568136025</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.0004847967149429755</v>
       </c>
     </row>
@@ -850,18 +1160,33 @@
         <v>-0.5</v>
       </c>
       <c r="B21" t="n">
+        <v>0.005916813758708006</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.003752382484849881</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
+        <v>0.002558480639606675</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.001861782607668949</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
+        <v>0.001426256685012339</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.001135423838217242</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
+        <v>0.000930699307050753</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.0007804721320217589</v>
       </c>
-      <c r="F21" t="n">
+      <c r="J21" t="n">
+        <v>0.000666510532631337</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.000577680017813359</v>
       </c>
     </row>
@@ -870,18 +1195,33 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
+        <v>0.007613984620419401</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.004786859149531808</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
+        <v>0.003041450372875343</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.002126258244210366</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
+        <v>0.001588219224161358</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.001242700036633071</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
+        <v>0.001005946849728712</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.0008356030759803512</v>
       </c>
-      <c r="F22" t="n">
+      <c r="J22" t="n">
+        <v>0.0007083065395670496</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.0006102528540641861</v>
       </c>
     </row>
@@ -890,18 +1230,33 @@
         <v>0.5</v>
       </c>
       <c r="B23" t="n">
+        <v>0.005916813758708006</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.003752382484849881</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
+        <v>0.002558480639606675</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.001861782607668838</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
+        <v>0.001426256685012284</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.001135423838217242</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>0.0009306993070506975</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.0007804721320217034</v>
       </c>
-      <c r="F23" t="n">
+      <c r="J23" t="n">
+        <v>0.0006665105326312815</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.000577680017813359</v>
       </c>
     </row>
@@ -910,18 +1265,33 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
+        <v>4.608406820877375e-05</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.001242049296894532</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
+        <v>0.001318338074320968</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.001158780741044474</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
+        <v>0.0009859959953862907</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.000839254397431044</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
+        <v>0.0007205832872460016</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.0006251910792477999</v>
       </c>
-      <c r="F24" t="n">
+      <c r="J24" t="n">
+        <v>0.0005479839568135469</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.0004847967149428922</v>
       </c>
     </row>
@@ -930,18 +1300,33 @@
         <v>1.5</v>
       </c>
       <c r="B25" t="n">
+        <v>0.004688111488193702</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.001377170573489239</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
+        <v>0.0001651918382024053</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.0002495606824279295</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
+        <v>0.0003880287533527538</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.0004233661389556054</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
+        <v>0.0004183438198858969</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.0003977283040173252</v>
       </c>
-      <c r="F25" t="n">
+      <c r="J25" t="n">
+        <v>0.0003718708495881184</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.000345187008518294</v>
       </c>
     </row>
@@ -950,18 +1335,33 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
+        <v>0.005835966714192342</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.002869335464371153</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
+        <v>0.001339154478326748</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.0005884941647758823</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>0.0002139566821225403</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.00942615325439e-05</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
+        <v>8.276436428777956e-05</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.0001374794687054037</v>
       </c>
-      <c r="F26" t="n">
+      <c r="J26" t="n">
+        <v>0.0001656431391172108</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.0001786306353353806</v>
       </c>
     </row>
@@ -970,18 +1370,33 @@
         <v>2.5</v>
       </c>
       <c r="B27" t="n">
+        <v>0.002532466581562011</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.002845107283435205</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
+        <v>0.001867606383185672</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.00113926643284637</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" t="n">
+        <v>0.0006831207719751597</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.0004019213649766873</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
+        <v>0.000225881590213084</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.0001134330978927456</v>
       </c>
-      <c r="F27" t="n">
+      <c r="J27" t="n">
+        <v>4.037956507235707e-05</v>
+      </c>
+      <c r="K27" t="n">
         <v>7.494842012012448e-06</v>
       </c>
     </row>
@@ -990,18 +1405,33 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
+        <v>0.000421835444555211</v>
+      </c>
+      <c r="C28" t="n">
         <v>0.001795184549126583</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
+        <v>0.001738109836316157</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.001315140959735062</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
+        <v>0.0009380040664225542</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.0006583483194415873</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
+        <v>0.0004594949230676826</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.000318807031239654</v>
       </c>
-      <c r="F28" t="n">
+      <c r="J28" t="n">
+        <v>0.0002187156658477185</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.0001471424625742734</v>
       </c>
     </row>
@@ -1010,18 +1440,33 @@
         <v>3.5</v>
       </c>
       <c r="B29" t="n">
+        <v>0.001411685417850077</v>
+      </c>
+      <c r="C29" t="n">
         <v>0.0005562103095033549</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
+        <v>0.001188709350211814</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.001161798226993346</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>0.0009669869005349135</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.000763395812527573</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
+        <v>0.0005912251080207875</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.000454821991450638</v>
       </c>
-      <c r="F29" t="n">
+      <c r="J29" t="n">
+        <v>0.0003493371842847315</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.0002688482248321411</v>
       </c>
     </row>
@@ -1030,18 +1475,33 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
+        <v>0.0008801175682873171</v>
+      </c>
+      <c r="C30" t="n">
         <v>0.0002784238640146514</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
+        <v>0.0005354680765710523</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.0008107344516511544</v>
       </c>
-      <c r="D30" t="n">
+      <c r="F30" t="n">
+        <v>0.0008174729882632903</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.0007286921140924746</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
+        <v>0.0006180547969308892</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.000512993067000575</v>
       </c>
-      <c r="F30" t="n">
+      <c r="J30" t="n">
+        <v>0.0004223224936963088</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.0003480706086110841</v>
       </c>
     </row>
@@ -1050,18 +1510,33 @@
         <v>4.5</v>
       </c>
       <c r="B31" t="n">
+        <v>0.0003767715369098859</v>
+      </c>
+      <c r="C31" t="n">
         <v>0.0005777565660782915</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
+        <v>1.696980564960468e-05</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.0004116672879874855</v>
       </c>
-      <c r="D31" t="n">
+      <c r="F31" t="n">
+        <v>0.0005686819071119426</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.0005929945261256148</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
+        <v>0.0005571941376371903</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.0004993952059436368</v>
       </c>
-      <c r="F31" t="n">
+      <c r="J31" t="n">
+        <v>0.0004382369491041094</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.0003829830236555393</v>
       </c>
     </row>
@@ -1070,18 +1545,33 @@
         <v>5</v>
       </c>
       <c r="B32" t="n">
+        <v>0.0001340346501188412</v>
+      </c>
+      <c r="C32" t="n">
         <v>0.0005221397328135876</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
+        <v>0.0002715237934633706</v>
+      </c>
+      <c r="E32" t="n">
         <v>7.803615112054324e-05</v>
       </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
+        <v>0.0003013123449663521</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.0004066512510287265</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
+        <v>0.0004383558806028767</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.0004309610018769783</v>
       </c>
-      <c r="F32" t="n">
+      <c r="J32" t="n">
+        <v>0.0004065329423725283</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.0003790263703341429</v>
       </c>
     </row>
@@ -1090,18 +1580,33 @@
         <v>5.5</v>
       </c>
       <c r="B33" t="n">
+        <v>4.325160389720841e-05</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.0003448180131093959</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
+        <v>0.0003548431233305459</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.0001365304809409409</v>
       </c>
-      <c r="D33" t="n">
+      <c r="F33" t="n">
+        <v>7.525136069305716e-05</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.0002167767414537614</v>
       </c>
-      <c r="E33" t="n">
+      <c r="H33" t="n">
+        <v>0.0002947904732341494</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.0003302969288857191</v>
       </c>
-      <c r="F33" t="n">
+      <c r="J33" t="n">
+        <v>0.0003427141687136759</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.0003475501900164837</v>
       </c>
     </row>
@@ -1110,18 +1615,33 @@
         <v>6</v>
       </c>
       <c r="B34" t="n">
+        <v>1.329411097042605e-05</v>
+      </c>
+      <c r="C34" t="n">
         <v>0.0001864467594923189</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
+        <v>0.0003132250559916617</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.000232125335337844</v>
       </c>
-      <c r="D34" t="n">
+      <c r="F34" t="n">
+        <v>7.95605884416576e-05</v>
+      </c>
+      <c r="G34" t="n">
         <v>5.729644390820368e-05</v>
       </c>
-      <c r="E34" t="n">
+      <c r="H34" t="n">
+        <v>0.0001557171971623555</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.000220601349366821</v>
       </c>
-      <c r="F34" t="n">
+      <c r="J34" t="n">
+        <v>0.0002652191791607736</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.0003041447304807723</v>
       </c>
     </row>
@@ -1130,18 +1650,33 @@
         <v>6.5</v>
       </c>
       <c r="B35" t="n">
+        <v>3.991063862905876e-06</v>
+      </c>
+      <c r="C35" t="n">
         <v>8.714960263904838e-05</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
+        <v>0.0002251377620184683</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.0002403326880498851</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>0.0001603372085690561</v>
+      </c>
+      <c r="G35" t="n">
         <v>5.462335286173653e-05</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
+        <v>4.180534215365156e-05</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.0001219657370485697</v>
       </c>
-      <c r="F35" t="n">
+      <c r="J35" t="n">
+        <v>0.0001929399999775309</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.0002673049270215874</v>
       </c>
     </row>
@@ -1150,18 +1685,33 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
+        <v>1.182983878842288e-06</v>
+      </c>
+      <c r="C36" t="n">
         <v>3.652239392209342e-05</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
+        <v>0.0001400900728288715</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.0002008328999728846</v>
       </c>
-      <c r="D36" t="n">
+      <c r="F36" t="n">
+        <v>0.0001817892306120762</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.0001166491918776855</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
+        <v>3.585100941220012e-05</v>
+      </c>
+      <c r="I36" t="n">
         <v>4.979471577012951e-05</v>
       </c>
-      <c r="F36" t="n">
+      <c r="J36" t="n">
+        <v>0.0001440710137960086</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.000257990812889422</v>
       </c>
     </row>
@@ -1170,18 +1720,33 @@
         <v>7.5</v>
       </c>
       <c r="B37" t="n">
+        <v>3.475952595426752e-07</v>
+      </c>
+      <c r="C37" t="n">
         <v>1.409710143671206e-05</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
+        <v>7.779576273621795e-05</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.0001459920777264663</v>
       </c>
-      <c r="D37" t="n">
+      <c r="F37" t="n">
+        <v>0.0001652160266607076</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.0001360901667524089</v>
       </c>
-      <c r="E37" t="n">
+      <c r="H37" t="n">
+        <v>7.378792259351424e-05</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.552405798610837e-05</v>
       </c>
-      <c r="F37" t="n">
+      <c r="J37" t="n">
+        <v>0.0001366872555234357</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.0003004897545688424</v>
       </c>
     </row>
@@ -1190,18 +1755,33 @@
         <v>8</v>
       </c>
       <c r="B38" t="n">
+        <v>1.013998662918831e-07</v>
+      </c>
+      <c r="C38" t="n">
         <v>5.119394901460892e-06</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
+        <v>3.929943889868233e-05</v>
+      </c>
+      <c r="E38" t="n">
         <v>9.525409520934249e-05</v>
       </c>
-      <c r="D38" t="n">
+      <c r="F38" t="n">
+        <v>0.0001301616856961892</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.0001237848129516748</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
+        <v>7.223393439317622e-05</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.943044296901173e-05</v>
       </c>
-      <c r="F38" t="n">
+      <c r="J38" t="n">
+        <v>0.0001911792219682316</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.0004247923841797126</v>
       </c>
     </row>
@@ -1210,18 +1790,33 @@
         <v>8.5</v>
       </c>
       <c r="B39" t="n">
+        <v>2.937990756015912e-08</v>
+      </c>
+      <c r="C39" t="n">
         <v>1.777804734030049e-06</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
+        <v>1.828539262412159e-05</v>
+      </c>
+      <c r="E39" t="n">
         <v>5.641006848172906e-05</v>
       </c>
-      <c r="D39" t="n">
+      <c r="F39" t="n">
+        <v>8.990550300629454e-05</v>
+      </c>
+      <c r="G39" t="n">
         <v>8.861880145154136e-05</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
+        <v>3.00756778229749e-05</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.0001051904049199168</v>
       </c>
-      <c r="F39" t="n">
+      <c r="J39" t="n">
+        <v>0.0003344817735985127</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.0006705008413481848</v>
       </c>
     </row>
@@ -1230,18 +1825,33 @@
         <v>9</v>
       </c>
       <c r="B40" t="n">
+        <v>8.416902704231582e-09</v>
+      </c>
+      <c r="C40" t="n">
         <v>5.934462376864623e-07</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
+        <v>7.817561789008896e-06</v>
+      </c>
+      <c r="E40" t="n">
         <v>2.960344989279672e-05</v>
       </c>
-      <c r="D40" t="n">
+      <c r="F40" t="n">
+        <v>5.002842041025612e-05</v>
+      </c>
+      <c r="G40" t="n">
         <v>3.308245045099978e-05</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
+        <v>6.083298821672701e-05</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.0002659257399005885</v>
       </c>
-      <c r="F40" t="n">
+      <c r="J40" t="n">
+        <v>0.0006059299309506445</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.001092105132153105</v>
       </c>
     </row>
@@ -1250,18 +1860,33 @@
         <v>9.5</v>
       </c>
       <c r="B41" t="n">
+        <v>2.2323673131744e-09</v>
+      </c>
+      <c r="C41" t="n">
         <v>1.773133549744138e-07</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
+        <v>2.773000136238609e-06</v>
+      </c>
+      <c r="E41" t="n">
         <v>1.097168013849569e-05</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
+        <v>8.263766332606366e-06</v>
+      </c>
+      <c r="G41" t="n">
         <v>5.077211733908678e-05</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
+        <v>0.0002221642308108786</v>
+      </c>
+      <c r="I41" t="n">
         <v>0.0005516534459372559</v>
       </c>
-      <c r="F41" t="n">
+      <c r="J41" t="n">
+        <v>0.001064505400947206</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.001765276922314458</v>
       </c>
     </row>
@@ -1270,18 +1895,33 @@
         <v>10</v>
       </c>
       <c r="B42" t="n">
+        <v>3.753071400793627e-20</v>
+      </c>
+      <c r="C42" t="n">
         <v>1.188120024980291e-10</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
+        <v>1.598861512585516e-07</v>
+      </c>
+      <c r="E42" t="n">
         <v>5.621336212184457e-06</v>
       </c>
-      <c r="D42" t="n">
+      <c r="F42" t="n">
+        <v>4.639630592536599e-05</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.0001863339595975385</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
+        <v>0.0004970378915617418</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.001028185997527404</v>
       </c>
-      <c r="F42" t="n">
+      <c r="J42" t="n">
+        <v>0.001797125627452317</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.002793612098841302</v>
       </c>
     </row>
